--- a/TMP_new_private2 2.xlsx
+++ b/TMP_new_private2 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jelle.wassenaar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8B537E-A2C1-42CD-8FAA-15C93D2F6734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082A2972-3E84-4E81-A6A6-DA5C0A5F9DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{257A4BFE-6D51-484E-83FE-624AAE7AB7C7}"/>
+    <workbookView xWindow="19103" yWindow="-2280" windowWidth="28995" windowHeight="15675" xr2:uid="{257A4BFE-6D51-484E-83FE-624AAE7AB7C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="194">
   <si>
     <t>Site</t>
   </si>
@@ -589,13 +589,40 @@
   </si>
   <si>
     <t>Variable37</t>
+  </si>
+  <si>
+    <t>TestPump2</t>
+  </si>
+  <si>
+    <t>TestPump3</t>
+  </si>
+  <si>
+    <t>Pump Activity 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pumping 1 </t>
+  </si>
+  <si>
+    <t>Pumping 3</t>
+  </si>
+  <si>
+    <t>Pumping 4</t>
+  </si>
+  <si>
+    <t>Variable80</t>
+  </si>
+  <si>
+    <t>Variable81</t>
+  </si>
+  <si>
+    <t>Variable82</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,6 +641,12 @@
       <color theme="0"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -667,14 +700,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -712,7 +741,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -818,7 +847,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -960,7 +989,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -968,27 +997,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950C331D-C5C4-43E7-A0CF-FCE2E311DF65}">
-  <dimension ref="A1:AL54"/>
+  <dimension ref="A1:AL57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S74" sqref="S74"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="15" width="9" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
     <col min="17" max="35" width="9" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.265625" bestFit="1" customWidth="1"/>
     <col min="37" max="38" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="69.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1133,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="360" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="319.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -1190,7 +1219,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -1276,7 +1305,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -1362,7 +1391,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -1448,7 +1477,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -1534,7 +1563,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1620,7 +1649,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1706,7 +1735,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -1792,7 +1821,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1878,7 +1907,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -1964,7 +1993,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -2050,7 +2079,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -2136,7 +2165,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -2222,7 +2251,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -2308,7 +2337,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -2394,7 +2423,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -2480,7 +2509,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -2566,7 +2595,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -2652,7 +2681,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -2738,7 +2767,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -2824,7 +2853,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -2910,7 +2939,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -2996,7 +3025,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -3082,7 +3111,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -3168,7 +3197,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -3254,7 +3283,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -3340,7 +3369,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -3426,7 +3455,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
@@ -3512,7 +3541,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -3598,7 +3627,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -3684,7 +3713,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -3770,7 +3799,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
@@ -3856,7 +3885,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -3942,7 +3971,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
@@ -4028,7 +4057,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -4114,7 +4143,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
@@ -4200,7 +4229,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -4286,7 +4315,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -4372,7 +4401,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -4458,7 +4487,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -4544,7 +4573,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
@@ -4630,7 +4659,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>38</v>
       </c>
@@ -4716,7 +4745,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
@@ -4802,7 +4831,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>38</v>
       </c>
@@ -4888,7 +4917,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>38</v>
       </c>
@@ -4974,7 +5003,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
@@ -5060,7 +5089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>38</v>
       </c>
@@ -5146,7 +5175,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>38</v>
       </c>
@@ -5232,7 +5261,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>38</v>
       </c>
@@ -5318,7 +5347,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="210" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" ht="194.65" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>38</v>
       </c>
@@ -5404,7 +5433,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:38" ht="105" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" ht="97.5" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>38</v>
       </c>
@@ -5490,7 +5519,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:38" ht="105" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" ht="97.5" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>38</v>
       </c>
@@ -5576,47 +5605,352 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+    <row r="54" spans="1:38" ht="97.5" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D54" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
+      <c r="H54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
+      <c r="N54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
+      <c r="Q54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
+      <c r="Z54" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
       <c r="AF54" s="1"/>
-      <c r="AG54" s="1"/>
-      <c r="AH54" s="1"/>
-      <c r="AI54" s="1"/>
-      <c r="AJ54" s="1"/>
-      <c r="AK54" s="1"/>
-      <c r="AL54" s="1"/>
+      <c r="AG54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL54" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" ht="97.5" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL55" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" ht="97.5" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D56" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ56" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL56" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38" ht="97.5" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL57" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/TMP_new_private2 2.xlsx
+++ b/TMP_new_private2 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jelle.wassenaar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082A2972-3E84-4E81-A6A6-DA5C0A5F9DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A490F7-6681-4BF4-BCC6-163955C8A95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19103" yWindow="-2280" windowWidth="28995" windowHeight="15675" xr2:uid="{257A4BFE-6D51-484E-83FE-624AAE7AB7C7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="200">
   <si>
     <t>Site</t>
   </si>
@@ -616,6 +616,24 @@
   </si>
   <si>
     <t>Variable82</t>
+  </si>
+  <si>
+    <t>TheTestPump1</t>
+  </si>
+  <si>
+    <t>TheTestPump2</t>
+  </si>
+  <si>
+    <t>TheTestPump3</t>
+  </si>
+  <si>
+    <t>Variable83</t>
+  </si>
+  <si>
+    <t>Variable85</t>
+  </si>
+  <si>
+    <t>Variable86</t>
   </si>
 </sst>
 </file>
@@ -997,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950C331D-C5C4-43E7-A0CF-FCE2E311DF65}">
-  <dimension ref="A1:AL57"/>
+  <dimension ref="A1:AL63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5949,6 +5967,522 @@
         <v>52</v>
       </c>
     </row>
+    <row r="58" spans="1:38" ht="97.5" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="S58" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK58" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL58" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" ht="97.5" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S59" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ59" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL59" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" ht="97.5" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D60" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="S60" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL60" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" ht="97.5" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL61" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" ht="97.5" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1"/>
+      <c r="AG62" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH62" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL62" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38" ht="97.5" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL63" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
